--- a/Code/Results/Cases/Case_0_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4107914806824624</v>
+        <v>0.4171829743026194</v>
       </c>
       <c r="D2">
-        <v>0.02171919958733248</v>
+        <v>0.06224863125155711</v>
       </c>
       <c r="E2">
-        <v>0.1838465070549233</v>
+        <v>0.1762322384878772</v>
       </c>
       <c r="F2">
-        <v>1.311174742813606</v>
+        <v>1.556187929967365</v>
       </c>
       <c r="G2">
-        <v>1.301144312984434</v>
+        <v>1.47106727210172</v>
       </c>
       <c r="H2">
-        <v>0.771003975659255</v>
+        <v>1.309920094614284</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.667576689140901</v>
+        <v>2.067073081219064</v>
       </c>
       <c r="L2">
-        <v>0.1695803647666878</v>
+        <v>0.1537947137782396</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6675720092553235</v>
+        <v>1.360320642383932</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3659429728377006</v>
+        <v>0.4086188172729521</v>
       </c>
       <c r="D3">
-        <v>0.02355377728809138</v>
+        <v>0.06300606459510227</v>
       </c>
       <c r="E3">
-        <v>0.163217068848347</v>
+        <v>0.1722182091423434</v>
       </c>
       <c r="F3">
-        <v>1.192645789770495</v>
+        <v>1.541267486656594</v>
       </c>
       <c r="G3">
-        <v>1.181287373557538</v>
+        <v>1.45604978341035</v>
       </c>
       <c r="H3">
-        <v>0.7249600560440967</v>
+        <v>1.310024726463524</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.041425012039895</v>
+        <v>1.900597830129016</v>
       </c>
       <c r="L3">
-        <v>0.1500851889124633</v>
+        <v>0.1499387334270637</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7151685737373619</v>
+        <v>1.378697834434309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3390903210236047</v>
+        <v>0.4035999761287883</v>
       </c>
       <c r="D4">
-        <v>0.02472325712009038</v>
+        <v>0.06349179032226715</v>
       </c>
       <c r="E4">
-        <v>0.15086624326565</v>
+        <v>0.1698578013322987</v>
       </c>
       <c r="F4">
-        <v>1.123243522229188</v>
+        <v>1.533228010338803</v>
       </c>
       <c r="G4">
-        <v>1.111349133593748</v>
+        <v>1.447969616184508</v>
       </c>
       <c r="H4">
-        <v>0.6986670573658955</v>
+        <v>1.310878517365339</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.661026622413715</v>
+        <v>1.799132840006735</v>
       </c>
       <c r="L4">
-        <v>0.1384144165010639</v>
+        <v>0.1476645686336866</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7457428177110792</v>
+        <v>1.390573083689631</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3283022950271288</v>
+        <v>0.4016148542617941</v>
       </c>
       <c r="D5">
-        <v>0.02521011528996997</v>
+        <v>0.06369491751197831</v>
       </c>
       <c r="E5">
-        <v>0.145904267410593</v>
+        <v>0.1689220397725038</v>
       </c>
       <c r="F5">
-        <v>1.095733168630602</v>
+        <v>1.530232743457134</v>
       </c>
       <c r="G5">
-        <v>1.08368257132598</v>
+        <v>1.444962250334427</v>
       </c>
       <c r="H5">
-        <v>0.6884103839726521</v>
+        <v>1.311424461118648</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.50687753932516</v>
+        <v>1.757973639566728</v>
       </c>
       <c r="L5">
-        <v>0.1337256656893189</v>
+        <v>0.1467612277279216</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7585286816669132</v>
+        <v>1.395560991843297</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3265198068683333</v>
+        <v>0.401288851694801</v>
       </c>
       <c r="D6">
-        <v>0.02529156440695246</v>
+        <v>0.06372895995871186</v>
       </c>
       <c r="E6">
-        <v>0.145084398099474</v>
+        <v>0.1687682326762463</v>
       </c>
       <c r="F6">
-        <v>1.091209560851965</v>
+        <v>1.529752311999459</v>
       </c>
       <c r="G6">
-        <v>1.079136559310001</v>
+        <v>1.444480072762389</v>
       </c>
       <c r="H6">
-        <v>0.6867338334783</v>
+        <v>1.311527059295287</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.481329235299654</v>
+        <v>1.751150567484103</v>
       </c>
       <c r="L6">
-        <v>0.1329509356819827</v>
+        <v>0.1466126392810665</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7606711366243424</v>
+        <v>1.396398205078963</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3389442258719555</v>
+        <v>0.4035729609454108</v>
       </c>
       <c r="D7">
-        <v>0.02472978207845422</v>
+        <v>0.06349450875994744</v>
       </c>
       <c r="E7">
-        <v>0.1507990470009695</v>
+        <v>0.1698450756592109</v>
       </c>
       <c r="F7">
-        <v>1.122869481132696</v>
+        <v>1.533186479405757</v>
       </c>
       <c r="G7">
-        <v>1.110972744110413</v>
+        <v>1.447927904282011</v>
       </c>
       <c r="H7">
-        <v>0.6985269280464479</v>
+        <v>1.310885079091463</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.658944401805911</v>
+        <v>1.798576989427943</v>
       </c>
       <c r="L7">
-        <v>0.1383509205639157</v>
+        <v>0.1476522912375415</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7459139460563442</v>
+        <v>1.390639750647644</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3951746692895028</v>
+        <v>0.4141802325071353</v>
       </c>
       <c r="D8">
-        <v>0.02234248520983595</v>
+        <v>0.06250550370366614</v>
       </c>
       <c r="E8">
-        <v>0.1766627280582327</v>
+        <v>0.1748265172822201</v>
       </c>
       <c r="F8">
-        <v>1.269557159465535</v>
+        <v>1.550809819811548</v>
       </c>
       <c r="G8">
-        <v>1.259005780802795</v>
+        <v>1.465651617417393</v>
       </c>
       <c r="H8">
-        <v>0.7546926901887332</v>
+        <v>1.309791982407972</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.450739257773023</v>
+        <v>2.00951616187632</v>
       </c>
       <c r="L8">
-        <v>0.1627912166457151</v>
+        <v>0.15244572442964</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6836951362935793</v>
+        <v>1.366534249905826</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5117451773959942</v>
+        <v>0.4368905296990988</v>
       </c>
       <c r="D9">
-        <v>0.01803032153065409</v>
+        <v>0.06073017618086851</v>
       </c>
       <c r="E9">
-        <v>0.2303010607411196</v>
+        <v>0.1854266279350156</v>
       </c>
       <c r="F9">
-        <v>1.587817252757844</v>
+        <v>1.594327423827593</v>
       </c>
       <c r="G9">
-        <v>1.582523141001133</v>
+        <v>1.509527994193462</v>
       </c>
       <c r="H9">
-        <v>0.8824919317762578</v>
+        <v>1.313938548016523</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.043435284409156</v>
+        <v>2.429170573197553</v>
       </c>
       <c r="L9">
-        <v>0.213497642069882</v>
+        <v>0.1625917822963885</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5730255965522524</v>
+        <v>1.323961849961119</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6025880548207567</v>
+        <v>0.4547540756375099</v>
       </c>
       <c r="D10">
-        <v>0.01513255257120871</v>
+        <v>0.05952612110751243</v>
       </c>
       <c r="E10">
-        <v>0.2721348826506826</v>
+        <v>0.1937288889394821</v>
       </c>
       <c r="F10">
-        <v>1.846238885201828</v>
+        <v>1.631847389265786</v>
       </c>
       <c r="G10">
-        <v>1.847031881576726</v>
+        <v>1.547426771460152</v>
       </c>
       <c r="H10">
-        <v>0.9901985584038471</v>
+        <v>1.320857666539695</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.250105498375092</v>
+        <v>2.741241878747985</v>
       </c>
       <c r="L10">
-        <v>0.2530757526184715</v>
+        <v>0.1705087709406996</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4996045940975442</v>
+        <v>1.295553775690117</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6453903414868023</v>
+        <v>0.463139798675769</v>
       </c>
       <c r="D11">
-        <v>0.01388538837905973</v>
+        <v>0.05900019708403104</v>
       </c>
       <c r="E11">
-        <v>0.291858296987634</v>
+        <v>0.1976191909292382</v>
       </c>
       <c r="F11">
-        <v>1.970659040555049</v>
+        <v>1.650140004765987</v>
       </c>
       <c r="G11">
-        <v>1.974866968757027</v>
+        <v>1.565920295897911</v>
       </c>
       <c r="H11">
-        <v>1.042976237101897</v>
+        <v>1.324854762089529</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.810089370781895</v>
+        <v>2.884048136147157</v>
       </c>
       <c r="L11">
-        <v>0.2717471255481456</v>
+        <v>0.1742126523890875</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4681654853233681</v>
+        <v>1.283254713982021</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6618439715999784</v>
+        <v>0.4663527937632068</v>
       </c>
       <c r="D12">
-        <v>0.01342460089577724</v>
+        <v>0.058804186420093</v>
       </c>
       <c r="E12">
-        <v>0.2994425001533898</v>
+        <v>0.1991087957738245</v>
       </c>
       <c r="F12">
-        <v>2.018905572641927</v>
+        <v>1.657244503219886</v>
       </c>
       <c r="G12">
-        <v>2.024515334026461</v>
+        <v>1.573105277711278</v>
       </c>
       <c r="H12">
-        <v>1.063580255498209</v>
+        <v>1.32649118418496</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.024027541944179</v>
+        <v>2.938247576645949</v>
       </c>
       <c r="L12">
-        <v>0.2789288882884051</v>
+        <v>0.1756300673031177</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4565663238521793</v>
+        <v>1.278687260309916</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6582889081827261</v>
+        <v>0.4656591467691555</v>
       </c>
       <c r="D13">
-        <v>0.01352330630925369</v>
+        <v>0.05884626077567834</v>
       </c>
       <c r="E13">
-        <v>0.2978037029494374</v>
+        <v>0.1987872502609704</v>
       </c>
       <c r="F13">
-        <v>2.008462006054629</v>
+        <v>1.655706506545798</v>
       </c>
       <c r="G13">
-        <v>2.013764749528889</v>
+        <v>1.571549746977297</v>
       </c>
       <c r="H13">
-        <v>1.059114025605197</v>
+        <v>1.326133279094222</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.977863240554939</v>
+        <v>2.92656933107628</v>
       </c>
       <c r="L13">
-        <v>0.2773769496727141</v>
+        <v>0.1753241400621022</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4590503765225762</v>
+        <v>1.279666939792939</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6467388714628157</v>
+        <v>0.4634033809969651</v>
       </c>
       <c r="D14">
-        <v>0.01384724086351952</v>
+        <v>0.05898400807458959</v>
       </c>
       <c r="E14">
-        <v>0.2924798444284633</v>
+        <v>0.1977414117054224</v>
       </c>
       <c r="F14">
-        <v>1.974604745847088</v>
+        <v>1.65072093112677</v>
       </c>
       <c r="G14">
-        <v>1.978925727556856</v>
+        <v>1.566507753736346</v>
       </c>
       <c r="H14">
-        <v>1.044658490629047</v>
+        <v>1.324986926527913</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.827650610945966</v>
+        <v>2.888504712338772</v>
       </c>
       <c r="L14">
-        <v>0.2723356472122163</v>
+        <v>0.1743289660068257</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4672049301245487</v>
+        <v>1.28287714313603</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6396971368751565</v>
+        <v>0.462026549050762</v>
       </c>
       <c r="D15">
-        <v>0.01404719737354121</v>
+        <v>0.05906879218324246</v>
       </c>
       <c r="E15">
-        <v>0.2892343533403121</v>
+        <v>0.1971029483703148</v>
       </c>
       <c r="F15">
-        <v>1.95401812512219</v>
+        <v>1.647690277048071</v>
       </c>
       <c r="G15">
-        <v>1.957752407295146</v>
+        <v>1.563443124302012</v>
       </c>
       <c r="H15">
-        <v>1.035886946032321</v>
+        <v>1.324300765079016</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.735895795255601</v>
+        <v>2.865204913761488</v>
       </c>
       <c r="L15">
-        <v>0.2692626916027052</v>
+        <v>0.1737213284645094</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4722404694644844</v>
+        <v>1.284855204021014</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5998232725285391</v>
+        <v>0.4542112867400192</v>
       </c>
       <c r="D16">
-        <v>0.0152155911348526</v>
+        <v>0.0595609310911831</v>
       </c>
       <c r="E16">
-        <v>0.2708611553360925</v>
+        <v>0.1934769423707152</v>
       </c>
       <c r="F16">
-        <v>1.838257776706357</v>
+        <v>1.630676683975636</v>
       </c>
       <c r="G16">
-        <v>1.838841898467507</v>
+        <v>1.54624353651667</v>
       </c>
       <c r="H16">
-        <v>0.9868316616972663</v>
+        <v>1.320613596969196</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.213756120312723</v>
+        <v>2.731926170144391</v>
       </c>
       <c r="L16">
-        <v>0.2518702296759585</v>
+        <v>0.1702687835484795</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5017006681448315</v>
+        <v>1.296370121284397</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5757624875967338</v>
+        <v>0.4494834740010276</v>
       </c>
       <c r="D17">
-        <v>0.01595139864571671</v>
+        <v>0.05986843422770427</v>
       </c>
       <c r="E17">
-        <v>0.2597778658622474</v>
+        <v>0.1912816628789002</v>
       </c>
       <c r="F17">
-        <v>1.76909756406782</v>
+        <v>1.620554025417206</v>
       </c>
       <c r="G17">
-        <v>1.76792517867662</v>
+        <v>1.536014305585866</v>
       </c>
       <c r="H17">
-        <v>0.9577564772816061</v>
+        <v>1.318569685038938</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.896471497873051</v>
+        <v>2.650380365352078</v>
       </c>
       <c r="L17">
-        <v>0.2413817268274272</v>
+        <v>0.1681770646540031</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5202920014664656</v>
+        <v>1.303594099988089</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5620602266619414</v>
+        <v>0.4467885756853036</v>
       </c>
       <c r="D18">
-        <v>0.01638121530068215</v>
+        <v>0.06004735384142101</v>
       </c>
       <c r="E18">
-        <v>0.2534672290556017</v>
+        <v>0.1900296789416203</v>
       </c>
       <c r="F18">
-        <v>1.729954768089712</v>
+        <v>1.614846920772095</v>
       </c>
       <c r="G18">
-        <v>1.72783181743398</v>
+        <v>1.530248576324652</v>
       </c>
       <c r="H18">
-        <v>0.9413841489063941</v>
+        <v>1.317474005924822</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.714999523919914</v>
+        <v>2.603556731417484</v>
       </c>
       <c r="L18">
-        <v>0.235410778101766</v>
+        <v>0.1669835952932743</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5311681590762802</v>
+        <v>1.307807853687642</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5574434468024947</v>
+        <v>0.4458803170081467</v>
       </c>
       <c r="D19">
-        <v>0.01652784197787494</v>
+        <v>0.06010828508735511</v>
       </c>
       <c r="E19">
-        <v>0.2513411310545379</v>
+        <v>0.189607610396628</v>
       </c>
       <c r="F19">
-        <v>1.716806865017688</v>
+        <v>1.612934333614092</v>
       </c>
       <c r="G19">
-        <v>1.714371880629415</v>
+        <v>1.528316590069949</v>
       </c>
       <c r="H19">
-        <v>0.9358989147473551</v>
+        <v>1.317116735515214</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.653723362974063</v>
+        <v>2.587716667779432</v>
       </c>
       <c r="L19">
-        <v>0.2333992871414665</v>
+        <v>0.1665811580680412</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5348813638441001</v>
+        <v>1.309244635731449</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5783094088276073</v>
+        <v>0.449984229584544</v>
       </c>
       <c r="D20">
-        <v>0.01587237910662864</v>
+        <v>0.05983548756084556</v>
       </c>
       <c r="E20">
-        <v>0.2609509511175858</v>
+        <v>0.1915142477703498</v>
       </c>
       <c r="F20">
-        <v>1.776392939444335</v>
+        <v>1.621619668964883</v>
       </c>
       <c r="G20">
-        <v>1.775401247550519</v>
+        <v>1.537091015179186</v>
       </c>
       <c r="H20">
-        <v>0.9608147483126572</v>
+        <v>1.318778986422672</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.930139230728003</v>
+        <v>2.659052838765831</v>
       </c>
       <c r="L20">
-        <v>0.2424917485476215</v>
+        <v>0.1683987340316691</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5182938251766842</v>
+        <v>1.302819017125909</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6501244561357282</v>
+        <v>0.4640649347313683</v>
       </c>
       <c r="D21">
-        <v>0.01375177049570908</v>
+        <v>0.05894346291021524</v>
       </c>
       <c r="E21">
-        <v>0.2940403241778924</v>
+        <v>0.1980481530614995</v>
       </c>
       <c r="F21">
-        <v>1.984517498052256</v>
+        <v>1.652180487537194</v>
       </c>
       <c r="G21">
-        <v>1.989123761004976</v>
+        <v>1.567983759576265</v>
       </c>
       <c r="H21">
-        <v>1.048887011271944</v>
+        <v>1.325320299889881</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.871718032642605</v>
+        <v>2.899681903298813</v>
       </c>
       <c r="L21">
-        <v>0.273813246191537</v>
+        <v>0.174620869236449</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4648012231934437</v>
+        <v>1.281931786042993</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6985081249892175</v>
+        <v>0.4734861800993428</v>
       </c>
       <c r="D22">
-        <v>0.01243353522054136</v>
+        <v>0.05837881156011449</v>
       </c>
       <c r="E22">
-        <v>0.3163474436684055</v>
+        <v>0.2024142643726918</v>
       </c>
       <c r="F22">
-        <v>2.127213902957777</v>
+        <v>1.673188905027502</v>
       </c>
       <c r="G22">
-        <v>2.136121140257046</v>
+        <v>1.589234913915874</v>
       </c>
       <c r="H22">
-        <v>1.110092732323892</v>
+        <v>1.330311555514584</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.498242536700673</v>
+        <v>3.057657182368132</v>
       </c>
       <c r="L22">
-        <v>0.2949411512470022</v>
+        <v>0.1787739187314799</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4316386821125917</v>
+        <v>1.268805084739512</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6725403354724904</v>
+        <v>0.4684378109948284</v>
       </c>
       <c r="D23">
-        <v>0.01313042916613849</v>
+        <v>0.05867849535286762</v>
       </c>
       <c r="E23">
-        <v>0.3043736375716577</v>
+        <v>0.2000751862760737</v>
       </c>
       <c r="F23">
-        <v>2.050390737019441</v>
+        <v>1.661881137967498</v>
       </c>
       <c r="G23">
-        <v>2.056937882747718</v>
+        <v>1.577795135327534</v>
       </c>
       <c r="H23">
-        <v>1.077065354378789</v>
+        <v>1.327581887307019</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.162727465653688</v>
+        <v>2.973277629076563</v>
       </c>
       <c r="L23">
-        <v>0.2835990070519756</v>
+        <v>0.1765494042395375</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4491648224563534</v>
+        <v>1.275763003836644</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5771575413656649</v>
+        <v>0.449757765786245</v>
       </c>
       <c r="D24">
-        <v>0.01590808278088929</v>
+        <v>0.05985037610735056</v>
       </c>
       <c r="E24">
-        <v>0.2604204095187512</v>
+        <v>0.1914090646542803</v>
       </c>
       <c r="F24">
-        <v>1.773092784956916</v>
+        <v>1.62113754104692</v>
       </c>
       <c r="G24">
-        <v>1.772019218073183</v>
+        <v>1.536603876086815</v>
       </c>
       <c r="H24">
-        <v>0.9594310399299957</v>
+        <v>1.31868411400626</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.914915145061343</v>
+        <v>2.655131832495897</v>
       </c>
       <c r="L24">
-        <v>0.2419897249960457</v>
+        <v>0.1682984890088761</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5191966176657701</v>
+        <v>1.303169243358781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4794038494180768</v>
+        <v>0.4305409150396429</v>
       </c>
       <c r="D25">
-        <v>0.01915309367708407</v>
+        <v>0.06119285818536291</v>
       </c>
       <c r="E25">
-        <v>0.2154154825743149</v>
+        <v>0.1824692348788233</v>
       </c>
       <c r="F25">
-        <v>1.497868511677908</v>
+        <v>1.581586840172463</v>
       </c>
       <c r="G25">
-        <v>1.490811399240243</v>
+        <v>1.496671316132165</v>
       </c>
       <c r="H25">
-        <v>0.8457338402022572</v>
+        <v>1.312139495213188</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.607114544492333</v>
+        <v>2.314990935877461</v>
       </c>
       <c r="L25">
-        <v>0.1994218585797256</v>
+        <v>0.1597663240572871</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6016564587884652</v>
+        <v>1.334975273053079</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4171829743026194</v>
+        <v>0.4107914806826898</v>
       </c>
       <c r="D2">
-        <v>0.06224863125155711</v>
+        <v>0.02171919958724988</v>
       </c>
       <c r="E2">
-        <v>0.1762322384878772</v>
+        <v>0.183846507054902</v>
       </c>
       <c r="F2">
-        <v>1.556187929967365</v>
+        <v>1.31117474281362</v>
       </c>
       <c r="G2">
-        <v>1.47106727210172</v>
+        <v>1.301144312984377</v>
       </c>
       <c r="H2">
-        <v>1.309920094614284</v>
+        <v>0.7710039756592266</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.067073081219064</v>
+        <v>4.667576689140731</v>
       </c>
       <c r="L2">
-        <v>0.1537947137782396</v>
+        <v>0.1695803647667447</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.360320642383932</v>
+        <v>0.6675720092553696</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4086188172729521</v>
+        <v>0.3659429728371606</v>
       </c>
       <c r="D3">
-        <v>0.06300606459510227</v>
+        <v>0.02355377728821129</v>
       </c>
       <c r="E3">
-        <v>0.1722182091423434</v>
+        <v>0.1632170688483399</v>
       </c>
       <c r="F3">
-        <v>1.541267486656594</v>
+        <v>1.192645789770495</v>
       </c>
       <c r="G3">
-        <v>1.45604978341035</v>
+        <v>1.18128737355751</v>
       </c>
       <c r="H3">
-        <v>1.310024726463524</v>
+        <v>0.7249600560440967</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.900597830129016</v>
+        <v>4.041425012039952</v>
       </c>
       <c r="L3">
-        <v>0.1499387334270637</v>
+        <v>0.1500851889124704</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.378697834434309</v>
+        <v>0.7151685737373619</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4035999761287883</v>
+        <v>0.3390903210236047</v>
       </c>
       <c r="D4">
-        <v>0.06349179032226715</v>
+        <v>0.02472325712028134</v>
       </c>
       <c r="E4">
-        <v>0.1698578013322987</v>
+        <v>0.1508662432656678</v>
       </c>
       <c r="F4">
-        <v>1.533228010338803</v>
+        <v>1.123243522229174</v>
       </c>
       <c r="G4">
-        <v>1.447969616184508</v>
+        <v>1.111349133593805</v>
       </c>
       <c r="H4">
-        <v>1.310878517365339</v>
+        <v>0.6986670573658955</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.799132840006735</v>
+        <v>3.661026622413829</v>
       </c>
       <c r="L4">
-        <v>0.1476645686336866</v>
+        <v>0.1384144165010639</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.390573083689631</v>
+        <v>0.7457428177110152</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4016148542617941</v>
+        <v>0.3283022950271004</v>
       </c>
       <c r="D5">
-        <v>0.06369491751197831</v>
+        <v>0.02521011528978079</v>
       </c>
       <c r="E5">
-        <v>0.1689220397725038</v>
+        <v>0.1459042674105895</v>
       </c>
       <c r="F5">
-        <v>1.530232743457134</v>
+        <v>1.095733168630616</v>
       </c>
       <c r="G5">
-        <v>1.444962250334427</v>
+        <v>1.08368257132598</v>
       </c>
       <c r="H5">
-        <v>1.311424461118648</v>
+        <v>0.6884103839726521</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.757973639566728</v>
+        <v>3.506877539324989</v>
       </c>
       <c r="L5">
-        <v>0.1467612277279216</v>
+        <v>0.133725665689262</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.395560991843297</v>
+        <v>0.7585286816669132</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.401288851694801</v>
+        <v>0.3265198068683333</v>
       </c>
       <c r="D6">
-        <v>0.06372895995871186</v>
+        <v>0.02529156440684144</v>
       </c>
       <c r="E6">
-        <v>0.1687682326762463</v>
+        <v>0.1450843980994563</v>
       </c>
       <c r="F6">
-        <v>1.529752311999459</v>
+        <v>1.091209560851979</v>
       </c>
       <c r="G6">
-        <v>1.444480072762389</v>
+        <v>1.079136559309987</v>
       </c>
       <c r="H6">
-        <v>1.311527059295287</v>
+        <v>0.6867338334784137</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.751150567484103</v>
+        <v>3.48132923529954</v>
       </c>
       <c r="L6">
-        <v>0.1466126392810665</v>
+        <v>0.1329509356820751</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.396398205078963</v>
+        <v>0.7606711366243566</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4035729609454108</v>
+        <v>0.3389442258717565</v>
       </c>
       <c r="D7">
-        <v>0.06349450875994744</v>
+        <v>0.02472978207842846</v>
       </c>
       <c r="E7">
-        <v>0.1698450756592109</v>
+        <v>0.1507990470009659</v>
       </c>
       <c r="F7">
-        <v>1.533186479405757</v>
+        <v>1.12286948113271</v>
       </c>
       <c r="G7">
-        <v>1.447927904282011</v>
+        <v>1.110972744110455</v>
       </c>
       <c r="H7">
-        <v>1.310885079091463</v>
+        <v>0.6985269280464763</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.798576989427943</v>
+        <v>3.658944401805797</v>
       </c>
       <c r="L7">
-        <v>0.1476522912375415</v>
+        <v>0.138350920563866</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.390639750647644</v>
+        <v>0.7459139460563513</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4141802325071353</v>
+        <v>0.3951746692893892</v>
       </c>
       <c r="D8">
-        <v>0.06250550370366614</v>
+        <v>0.02234248520991677</v>
       </c>
       <c r="E8">
-        <v>0.1748265172822201</v>
+        <v>0.176662728058254</v>
       </c>
       <c r="F8">
-        <v>1.550809819811548</v>
+        <v>1.269557159465535</v>
       </c>
       <c r="G8">
-        <v>1.465651617417393</v>
+        <v>1.259005780802852</v>
       </c>
       <c r="H8">
-        <v>1.309791982407972</v>
+        <v>0.7546926901886195</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.00951616187632</v>
+        <v>4.45073925777308</v>
       </c>
       <c r="L8">
-        <v>0.15244572442964</v>
+        <v>0.1627912166456085</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.366534249905826</v>
+        <v>0.6836951362935402</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4368905296990988</v>
+        <v>0.5117451773959374</v>
       </c>
       <c r="D9">
-        <v>0.06073017618086851</v>
+        <v>0.01803032153053241</v>
       </c>
       <c r="E9">
-        <v>0.1854266279350156</v>
+        <v>0.2303010607411125</v>
       </c>
       <c r="F9">
-        <v>1.594327423827593</v>
+        <v>1.587817252757858</v>
       </c>
       <c r="G9">
-        <v>1.509527994193462</v>
+        <v>1.582523141001161</v>
       </c>
       <c r="H9">
-        <v>1.313938548016523</v>
+        <v>0.8824919317763715</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.429170573197553</v>
+        <v>6.043435284409213</v>
       </c>
       <c r="L9">
-        <v>0.1625917822963885</v>
+        <v>0.2134976420697399</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.323961849961119</v>
+        <v>0.5730255965523057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4547540756375099</v>
+        <v>0.6025880548207283</v>
       </c>
       <c r="D10">
-        <v>0.05952612110751243</v>
+        <v>0.01513255257130108</v>
       </c>
       <c r="E10">
-        <v>0.1937288889394821</v>
+        <v>0.2721348826506684</v>
       </c>
       <c r="F10">
-        <v>1.631847389265786</v>
+        <v>1.846238885201814</v>
       </c>
       <c r="G10">
-        <v>1.547426771460152</v>
+        <v>1.847031881576669</v>
       </c>
       <c r="H10">
-        <v>1.320857666539695</v>
+        <v>0.9901985584038471</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.741241878747985</v>
+        <v>7.250105498375092</v>
       </c>
       <c r="L10">
-        <v>0.1705087709406996</v>
+        <v>0.2530757526185141</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.295553775690117</v>
+        <v>0.4996045940974732</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.463139798675769</v>
+        <v>0.6453903414870297</v>
       </c>
       <c r="D11">
-        <v>0.05900019708403104</v>
+        <v>0.01388538837916098</v>
       </c>
       <c r="E11">
-        <v>0.1976191909292382</v>
+        <v>0.2918582969876056</v>
       </c>
       <c r="F11">
-        <v>1.650140004765987</v>
+        <v>1.970659040555049</v>
       </c>
       <c r="G11">
-        <v>1.565920295897911</v>
+        <v>1.974866968756999</v>
       </c>
       <c r="H11">
-        <v>1.324854762089529</v>
+        <v>1.042976237101783</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.884048136147157</v>
+        <v>7.810089370781782</v>
       </c>
       <c r="L11">
-        <v>0.1742126523890875</v>
+        <v>0.271747125548103</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.283254713982021</v>
+        <v>0.4681654853233645</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4663527937632068</v>
+        <v>0.6618439716000069</v>
       </c>
       <c r="D12">
-        <v>0.058804186420093</v>
+        <v>0.01342460089589181</v>
       </c>
       <c r="E12">
-        <v>0.1991087957738245</v>
+        <v>0.2994425001533969</v>
       </c>
       <c r="F12">
-        <v>1.657244503219886</v>
+        <v>2.018905572641927</v>
       </c>
       <c r="G12">
-        <v>1.573105277711278</v>
+        <v>2.024515334026461</v>
       </c>
       <c r="H12">
-        <v>1.32649118418496</v>
+        <v>1.063580255498096</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.938247576645949</v>
+        <v>8.024027541944008</v>
       </c>
       <c r="L12">
-        <v>0.1756300673031177</v>
+        <v>0.2789288882884335</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.278687260309916</v>
+        <v>0.4565663238521829</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4656591467691555</v>
+        <v>0.6582889081829535</v>
       </c>
       <c r="D13">
-        <v>0.05884626077567834</v>
+        <v>0.01352330630914977</v>
       </c>
       <c r="E13">
-        <v>0.1987872502609704</v>
+        <v>0.2978037029495084</v>
       </c>
       <c r="F13">
-        <v>1.655706506545798</v>
+        <v>2.008462006054643</v>
       </c>
       <c r="G13">
-        <v>1.571549746977297</v>
+        <v>2.013764749528889</v>
       </c>
       <c r="H13">
-        <v>1.326133279094222</v>
+        <v>1.059114025605282</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.92656933107628</v>
+        <v>7.977863240554882</v>
       </c>
       <c r="L13">
-        <v>0.1753241400621022</v>
+        <v>0.2773769496726288</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.279666939792939</v>
+        <v>0.459050376522562</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4634033809969651</v>
+        <v>0.6467388714627873</v>
       </c>
       <c r="D14">
-        <v>0.05898400807458959</v>
+        <v>0.01384724086341826</v>
       </c>
       <c r="E14">
-        <v>0.1977414117054224</v>
+        <v>0.2924798444284775</v>
       </c>
       <c r="F14">
-        <v>1.65072093112677</v>
+        <v>1.974604745847088</v>
       </c>
       <c r="G14">
-        <v>1.566507753736346</v>
+        <v>1.978925727556884</v>
       </c>
       <c r="H14">
-        <v>1.324986926527913</v>
+        <v>1.044658490629047</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.888504712338772</v>
+        <v>7.827650610945909</v>
       </c>
       <c r="L14">
-        <v>0.1743289660068257</v>
+        <v>0.2723356472121452</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.28287714313603</v>
+        <v>0.4672049301245487</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.462026549050762</v>
+        <v>0.6396971368753839</v>
       </c>
       <c r="D15">
-        <v>0.05906879218324246</v>
+        <v>0.0140471973734444</v>
       </c>
       <c r="E15">
-        <v>0.1971029483703148</v>
+        <v>0.289234353340305</v>
       </c>
       <c r="F15">
-        <v>1.647690277048071</v>
+        <v>1.954018125122175</v>
       </c>
       <c r="G15">
-        <v>1.563443124302012</v>
+        <v>1.957752407295231</v>
       </c>
       <c r="H15">
-        <v>1.324300765079016</v>
+        <v>1.035886946032207</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.865204913761488</v>
+        <v>7.735895795255772</v>
       </c>
       <c r="L15">
-        <v>0.1737213284645094</v>
+        <v>0.2692626916027621</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.284855204021014</v>
+        <v>0.4722404694644844</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4542112867400192</v>
+        <v>0.5998232725287664</v>
       </c>
       <c r="D16">
-        <v>0.0595609310911831</v>
+        <v>0.01521559113505155</v>
       </c>
       <c r="E16">
-        <v>0.1934769423707152</v>
+        <v>0.2708611553360996</v>
       </c>
       <c r="F16">
-        <v>1.630676683975636</v>
+        <v>1.838257776706357</v>
       </c>
       <c r="G16">
-        <v>1.54624353651667</v>
+        <v>1.838841898467535</v>
       </c>
       <c r="H16">
-        <v>1.320613596969196</v>
+        <v>0.98683166169738</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.731926170144391</v>
+        <v>7.213756120312723</v>
       </c>
       <c r="L16">
-        <v>0.1702687835484795</v>
+        <v>0.2518702296759727</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.296370121284397</v>
+        <v>0.5017006681448173</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4494834740010276</v>
+        <v>0.5757624875971601</v>
       </c>
       <c r="D17">
-        <v>0.05986843422770427</v>
+        <v>0.01595139864569717</v>
       </c>
       <c r="E17">
-        <v>0.1912816628789002</v>
+        <v>0.2597778658622545</v>
       </c>
       <c r="F17">
-        <v>1.620554025417206</v>
+        <v>1.76909756406782</v>
       </c>
       <c r="G17">
-        <v>1.536014305585866</v>
+        <v>1.767925178676592</v>
       </c>
       <c r="H17">
-        <v>1.318569685038938</v>
+        <v>0.9577564772817482</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.650380365352078</v>
+        <v>6.896471497873051</v>
       </c>
       <c r="L17">
-        <v>0.1681770646540031</v>
+        <v>0.2413817268273704</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.303594099988089</v>
+        <v>0.5202920014664656</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4467885756853036</v>
+        <v>0.5620602266619414</v>
       </c>
       <c r="D18">
-        <v>0.06004735384142101</v>
+        <v>0.0163812153006857</v>
       </c>
       <c r="E18">
-        <v>0.1900296789416203</v>
+        <v>0.2534672290556017</v>
       </c>
       <c r="F18">
-        <v>1.614846920772095</v>
+        <v>1.729954768089712</v>
       </c>
       <c r="G18">
-        <v>1.530248576324652</v>
+        <v>1.72783181743398</v>
       </c>
       <c r="H18">
-        <v>1.317474005924822</v>
+        <v>0.9413841489064225</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.603556731417484</v>
+        <v>6.714999523919914</v>
       </c>
       <c r="L18">
-        <v>0.1669835952932743</v>
+        <v>0.2354107781018229</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.307807853687642</v>
+        <v>0.5311681590763406</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4458803170081467</v>
+        <v>0.5574434468027221</v>
       </c>
       <c r="D19">
-        <v>0.06010828508735511</v>
+        <v>0.01652784197778256</v>
       </c>
       <c r="E19">
-        <v>0.189607610396628</v>
+        <v>0.251341131054545</v>
       </c>
       <c r="F19">
-        <v>1.612934333614092</v>
+        <v>1.716806865017702</v>
       </c>
       <c r="G19">
-        <v>1.528316590069949</v>
+        <v>1.714371880629329</v>
       </c>
       <c r="H19">
-        <v>1.317116735515214</v>
+        <v>0.9358989147473551</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.587716667779432</v>
+        <v>6.653723362974063</v>
       </c>
       <c r="L19">
-        <v>0.1665811580680412</v>
+        <v>0.2333992871413955</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.309244635731449</v>
+        <v>0.534881363844093</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.449984229584544</v>
+        <v>0.578309408827721</v>
       </c>
       <c r="D20">
-        <v>0.05983548756084556</v>
+        <v>0.01587237910672457</v>
       </c>
       <c r="E20">
-        <v>0.1915142477703498</v>
+        <v>0.2609509511176213</v>
       </c>
       <c r="F20">
-        <v>1.621619668964883</v>
+        <v>1.776392939444307</v>
       </c>
       <c r="G20">
-        <v>1.537091015179186</v>
+        <v>1.775401247550576</v>
       </c>
       <c r="H20">
-        <v>1.318778986422672</v>
+        <v>0.9608147483125435</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.659052838765831</v>
+        <v>6.93013923072823</v>
       </c>
       <c r="L20">
-        <v>0.1683987340316691</v>
+        <v>0.2424917485476783</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.302819017125909</v>
+        <v>0.5182938251766771</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4640649347313683</v>
+        <v>0.6501244561354724</v>
       </c>
       <c r="D21">
-        <v>0.05894346291021524</v>
+        <v>0.01375177049594267</v>
       </c>
       <c r="E21">
-        <v>0.1980481530614995</v>
+        <v>0.2940403241778711</v>
       </c>
       <c r="F21">
-        <v>1.652180487537194</v>
+        <v>1.98451749805227</v>
       </c>
       <c r="G21">
-        <v>1.567983759576265</v>
+        <v>1.989123761004947</v>
       </c>
       <c r="H21">
-        <v>1.325320299889881</v>
+        <v>1.048887011272001</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.899681903298813</v>
+        <v>7.871718032642605</v>
       </c>
       <c r="L21">
-        <v>0.174620869236449</v>
+        <v>0.2738132461913665</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.281931786042993</v>
+        <v>0.4648012231934437</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4734861800993428</v>
+        <v>0.698508124989246</v>
       </c>
       <c r="D22">
-        <v>0.05837881156011449</v>
+        <v>0.01243353522032642</v>
       </c>
       <c r="E22">
-        <v>0.2024142643726918</v>
+        <v>0.3163474436684339</v>
       </c>
       <c r="F22">
-        <v>1.673188905027502</v>
+        <v>2.127213902957791</v>
       </c>
       <c r="G22">
-        <v>1.589234913915874</v>
+        <v>2.136121140257217</v>
       </c>
       <c r="H22">
-        <v>1.330311555514584</v>
+        <v>1.110092732323977</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.057657182368132</v>
+        <v>8.498242536700616</v>
       </c>
       <c r="L22">
-        <v>0.1787739187314799</v>
+        <v>0.2949411512469595</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.268805084739512</v>
+        <v>0.4316386821125775</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4684378109948284</v>
+        <v>0.6725403354729451</v>
       </c>
       <c r="D23">
-        <v>0.05867849535286762</v>
+        <v>0.01313042916593421</v>
       </c>
       <c r="E23">
-        <v>0.2000751862760737</v>
+        <v>0.3043736375716932</v>
       </c>
       <c r="F23">
-        <v>1.661881137967498</v>
+        <v>2.050390737019427</v>
       </c>
       <c r="G23">
-        <v>1.577795135327534</v>
+        <v>2.056937882747661</v>
       </c>
       <c r="H23">
-        <v>1.327581887307019</v>
+        <v>1.077065354378931</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.973277629076563</v>
+        <v>8.162727465653745</v>
       </c>
       <c r="L23">
-        <v>0.1765494042395375</v>
+        <v>0.2835990070518477</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.275763003836644</v>
+        <v>0.4491648224562788</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.449757765786245</v>
+        <v>0.577157541365807</v>
       </c>
       <c r="D24">
-        <v>0.05985037610735056</v>
+        <v>0.0159080827808884</v>
       </c>
       <c r="E24">
-        <v>0.1914090646542803</v>
+        <v>0.2604204095187512</v>
       </c>
       <c r="F24">
-        <v>1.62113754104692</v>
+        <v>1.773092784956916</v>
       </c>
       <c r="G24">
-        <v>1.536603876086815</v>
+        <v>1.772019218073154</v>
       </c>
       <c r="H24">
-        <v>1.31868411400626</v>
+        <v>0.9594310399299957</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.655131832495897</v>
+        <v>6.914915145061457</v>
       </c>
       <c r="L24">
-        <v>0.1682984890088761</v>
+        <v>0.2419897249960599</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.303169243358781</v>
+        <v>0.5191966176657701</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4305409150396429</v>
+        <v>0.4794038494181052</v>
       </c>
       <c r="D25">
-        <v>0.06119285818536291</v>
+        <v>0.01915309367708762</v>
       </c>
       <c r="E25">
-        <v>0.1824692348788233</v>
+        <v>0.2154154825743149</v>
       </c>
       <c r="F25">
-        <v>1.581586840172463</v>
+        <v>1.497868511677922</v>
       </c>
       <c r="G25">
-        <v>1.496671316132165</v>
+        <v>1.490811399240187</v>
       </c>
       <c r="H25">
-        <v>1.312139495213188</v>
+        <v>0.8457338402022572</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.314990935877461</v>
+        <v>5.607114544492447</v>
       </c>
       <c r="L25">
-        <v>0.1597663240572871</v>
+        <v>0.1994218585797256</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.334975273053079</v>
+        <v>0.6016564587885291</v>
       </c>
       <c r="O25">
         <v>0</v>
